--- a/scuelo/export_sics/combined_excel.xlsx
+++ b/scuelo/export_sics/combined_excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Bck Classe" sheetId="1" state="visible" r:id="rId1"/>
@@ -9738,7 +9738,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9753,7 +9753,15 @@
     <col customWidth="1" min="7" max="7" width="21.421875"/>
     <col customWidth="1" min="8" max="8" width="17.00390625"/>
     <col customWidth="1" min="9" max="9" width="13.8515625"/>
-    <col customWidth="1" min="11" max="11" width="13.140625"/>
+    <col customWidth="1" min="11" max="11" width="14.7109375"/>
+    <col customWidth="1" min="12" max="12" width="14.140625"/>
+    <col bestFit="1" min="14" max="14" width="17.421875"/>
+    <col customWidth="1" min="15" max="15" width="32.57421875"/>
+    <col bestFit="1" min="16" max="16" width="17.421875"/>
+    <col customWidth="1" min="17" max="17" width="13.00390625"/>
+    <col customWidth="1" min="18" max="18" width="31.28125"/>
+    <col customWidth="1" min="19" max="19" width="15.7109375"/>
+    <col customWidth="1" min="20" max="20" width="21.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
